--- a/FDTR_Simulation_Fourier/Integral_Transform_Inversion/kappa_values_concentric.xlsx
+++ b/FDTR_Simulation_Fourier/Integral_Transform_Inversion/kappa_values_concentric.xlsx
@@ -447,242 +447,242 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.896551724137931</v>
+        <v>101.7241379310345</v>
       </c>
       <c r="B3" t="n">
-        <v>9.896551724137931</v>
+        <v>101.7241379310345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.79310344827586</v>
+        <v>103.448275862069</v>
       </c>
       <c r="B4" t="n">
-        <v>18.79310344827586</v>
+        <v>103.448275862069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.68965517241379</v>
+        <v>105.1724137931034</v>
       </c>
       <c r="B5" t="n">
-        <v>27.68965517241379</v>
+        <v>105.1724137931034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36.58620689655172</v>
+        <v>106.8965517241379</v>
       </c>
       <c r="B6" t="n">
-        <v>36.58620689655172</v>
+        <v>106.8965517241379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45.48275862068965</v>
+        <v>108.6206896551724</v>
       </c>
       <c r="B7" t="n">
-        <v>45.48275862068965</v>
+        <v>108.6206896551724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54.37931034482759</v>
+        <v>110.3448275862069</v>
       </c>
       <c r="B8" t="n">
-        <v>54.37931034482759</v>
+        <v>110.3448275862069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63.27586206896552</v>
+        <v>112.0689655172414</v>
       </c>
       <c r="B9" t="n">
-        <v>63.27586206896552</v>
+        <v>112.0689655172414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72.17241379310344</v>
+        <v>113.7931034482759</v>
       </c>
       <c r="B10" t="n">
-        <v>72.17241379310344</v>
+        <v>113.7931034482759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81.06896551724138</v>
+        <v>115.5172413793103</v>
       </c>
       <c r="B11" t="n">
-        <v>81.06896551724138</v>
+        <v>115.5172413793103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89.9655172413793</v>
+        <v>117.2413793103448</v>
       </c>
       <c r="B12" t="n">
-        <v>89.9655172413793</v>
+        <v>117.2413793103448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98.86206896551724</v>
+        <v>118.9655172413793</v>
       </c>
       <c r="B13" t="n">
-        <v>98.86206896551724</v>
+        <v>118.9655172413793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107.7586206896552</v>
+        <v>120.6896551724138</v>
       </c>
       <c r="B14" t="n">
-        <v>107.7586206896552</v>
+        <v>120.6896551724138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>116.6551724137931</v>
+        <v>122.4137931034483</v>
       </c>
       <c r="B15" t="n">
-        <v>116.6551724137931</v>
+        <v>122.4137931034483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>125.551724137931</v>
+        <v>124.1379310344828</v>
       </c>
       <c r="B16" t="n">
-        <v>125.551724137931</v>
+        <v>124.1379310344828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>134.448275862069</v>
+        <v>125.8620689655172</v>
       </c>
       <c r="B17" t="n">
-        <v>134.448275862069</v>
+        <v>125.8620689655172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>143.3448275862069</v>
+        <v>127.5862068965517</v>
       </c>
       <c r="B18" t="n">
-        <v>143.3448275862069</v>
+        <v>127.5862068965517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>152.2413793103448</v>
+        <v>129.3103448275862</v>
       </c>
       <c r="B19" t="n">
-        <v>152.2413793103448</v>
+        <v>129.3103448275862</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>161.1379310344828</v>
+        <v>131.0344827586207</v>
       </c>
       <c r="B20" t="n">
-        <v>161.1379310344828</v>
+        <v>131.0344827586207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>170.0344827586207</v>
+        <v>132.7586206896552</v>
       </c>
       <c r="B21" t="n">
-        <v>170.0344827586207</v>
+        <v>132.7586206896552</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>178.9310344827586</v>
+        <v>134.4827586206897</v>
       </c>
       <c r="B22" t="n">
-        <v>178.9310344827586</v>
+        <v>134.4827586206897</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>187.8275862068965</v>
+        <v>136.2068965517241</v>
       </c>
       <c r="B23" t="n">
-        <v>187.8275862068965</v>
+        <v>136.2068965517241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>196.7241379310345</v>
+        <v>137.9310344827586</v>
       </c>
       <c r="B24" t="n">
-        <v>196.7241379310345</v>
+        <v>137.9310344827586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>205.6206896551724</v>
+        <v>139.6551724137931</v>
       </c>
       <c r="B25" t="n">
-        <v>205.6206896551724</v>
+        <v>139.6551724137931</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>214.5172413793103</v>
+        <v>141.3793103448276</v>
       </c>
       <c r="B26" t="n">
-        <v>214.5172413793103</v>
+        <v>141.3793103448276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>223.4137931034483</v>
+        <v>143.1034482758621</v>
       </c>
       <c r="B27" t="n">
-        <v>223.4137931034483</v>
+        <v>143.1034482758621</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>232.3103448275862</v>
+        <v>144.8275862068965</v>
       </c>
       <c r="B28" t="n">
-        <v>232.3103448275862</v>
+        <v>144.8275862068965</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>241.2068965517241</v>
+        <v>146.551724137931</v>
       </c>
       <c r="B29" t="n">
-        <v>241.2068965517241</v>
+        <v>146.551724137931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250.1034482758621</v>
+        <v>148.2758620689655</v>
       </c>
       <c r="B30" t="n">
-        <v>250.1034482758621</v>
+        <v>148.2758620689655</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>259</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
